--- a/Output/All Data EDA/Tabular EDA/Numeric Summary Statistics.xlsx
+++ b/Output/All Data EDA/Tabular EDA/Numeric Summary Statistics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3416,7 +3416,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Postitivity Score</t>
+          <t>Positivity Score</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3443,23 +3443,23 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Readability</t>
+          <t>Word Count</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>12.51979203269571</v>
+        <v>8851.584462320068</v>
       </c>
       <c r="C112" t="n">
-        <v>8.551054692434002</v>
+        <v>1782</v>
       </c>
       <c r="D112" t="n">
-        <v>12.42931769446567</v>
+        <v>9077</v>
       </c>
       <c r="E112" t="n">
-        <v>19.28576584705617</v>
+        <v>22006</v>
       </c>
       <c r="F112" t="n">
-        <v>1.323332967044051</v>
+        <v>2489.132714756378</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3470,52 +3470,25 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Word Count</t>
+          <t>Change Since Last Fixed Quarter Date</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>8851.584462320068</v>
+        <v>0.009314140558848433</v>
       </c>
       <c r="C113" t="n">
-        <v>1782</v>
+        <v>-2</v>
       </c>
       <c r="D113" t="n">
-        <v>9077</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>22006</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>2489.132714756378</v>
+        <v>0.2915966755233195</v>
       </c>
       <c r="G113" t="inlineStr">
-        <is>
-          <t>NLP Feature</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Change Since Last Fixed Quarter Date</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.009314140558848433</v>
-      </c>
-      <c r="C114" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.2915966755233195</v>
-      </c>
-      <c r="G114" t="inlineStr">
         <is>
           <t>Predicted - Change</t>
         </is>
